--- a/xlsx/CaVaTeCo/form_y_faqs.xlsx
+++ b/xlsx/CaVaTeCo/form_y_faqs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\A_CaVaTeCo_projects\odk_forms_ilrg_lamadi\xlsx\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341117B2-F651-4715-8416-C133358F7588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DC5A32-33F3-4C4A-BA16-D6CCF1852FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="131">
   <si>
     <t>type</t>
   </si>
@@ -413,9 +413,6 @@
   </si>
   <si>
     <t>enum_name</t>
-  </si>
-  <si>
-    <t>pulldata('enum_names_las_zambezia', 'enumerator_name', 'name_id_key', ${enum_name_id})</t>
   </si>
   <si>
     <t>http://cavateco.terrafirma.co.mz:8080/lamadi_sofala/submission</t>
@@ -1588,11 +1585,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K33" sqref="K33"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1722,7 +1719,7 @@
         <v>112</v>
       </c>
       <c r="N6" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.3">
@@ -1758,7 +1755,7 @@
       </c>
       <c r="M9" s="42"/>
       <c r="O9" s="56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="23" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -1825,7 +1822,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
@@ -1835,11 +1832,8 @@
       <c r="B15" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="M15" s="55" t="s">
-        <v>130</v>
-      </c>
       <c r="N15" s="55" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -1853,7 +1847,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>20</v>
@@ -1949,7 +1943,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:C4"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6972,8 +6966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7011,10 +7005,10 @@
         <v>51</v>
       </c>
       <c r="C2" s="56">
-        <v>2022020201</v>
+        <v>2022092701</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" s="47" t="s">
         <v>117</v>
